--- a/data/WB_Одежда_Кигуруми_Отчет_по_трендам_25_01_2025_23_02_2025_25_02.xlsx
+++ b/data/WB_Одежда_Кигуруми_Отчет_по_трендам_25_01_2025_23_02_2025_25_02.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116BB32-F97F-4245-9ACD-EDB48A6018F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28C65F4-3AA3-474A-B90F-50101799C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ag-grid" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>17.02.2025</t>
   </si>
@@ -824,9 +835,6 @@
   </si>
   <si>
     <t>target_market</t>
-  </si>
-  <si>
-    <t>18-25</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1194,7 @@
   <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,8 +1220,9 @@
       <c r="B2">
         <v>7744</v>
       </c>
-      <c r="C2" t="s">
-        <v>268</v>
+      <c r="C2">
+        <f>74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,8 +1232,9 @@
       <c r="B3">
         <v>8746</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>268</v>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C66" si="0">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,8 +1244,9 @@
       <c r="B4">
         <v>7381</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>268</v>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,8 +1256,9 @@
       <c r="B5">
         <v>5752</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>268</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,8 +1268,9 @@
       <c r="B6">
         <v>6718</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>268</v>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,8 +1280,9 @@
       <c r="B7">
         <v>7101</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>268</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,8 +1292,9 @@
       <c r="B8">
         <v>6883</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>268</v>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,8 +1304,9 @@
       <c r="B9">
         <v>8448</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>268</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,8 +1316,9 @@
       <c r="B10">
         <v>30472</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>268</v>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,8 +1328,9 @@
       <c r="B11">
         <v>33840</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>268</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,8 +1340,9 @@
       <c r="B12">
         <v>31326</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>268</v>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,8 +1352,9 @@
       <c r="B13">
         <v>20931</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>268</v>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,8 +1364,9 @@
       <c r="B14">
         <v>15759</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>268</v>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,8 +1376,9 @@
       <c r="B15">
         <v>10721</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>268</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,8 +1388,9 @@
       <c r="B16">
         <v>9921</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>268</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,8 +1400,9 @@
       <c r="B17">
         <v>8546</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>268</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,8 +1412,9 @@
       <c r="B18">
         <v>7888</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>268</v>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,8 +1424,9 @@
       <c r="B19">
         <v>6639</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>268</v>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,8 +1436,9 @@
       <c r="B20">
         <v>7249</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>268</v>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,8 +1448,9 @@
       <c r="B21">
         <v>6154</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>268</v>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,8 +1460,9 @@
       <c r="B22">
         <v>6141</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>268</v>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,8 +1472,9 @@
       <c r="B23">
         <v>6050</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>268</v>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,8 +1484,9 @@
       <c r="B24">
         <v>4643</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>268</v>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,8 +1496,9 @@
       <c r="B25">
         <v>3767</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>268</v>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,8 +1508,9 @@
       <c r="B26">
         <v>3733</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>268</v>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,8 +1520,9 @@
       <c r="B27">
         <v>2680</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>268</v>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,8 +1532,9 @@
       <c r="B28">
         <v>2833</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>268</v>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,8 +1544,9 @@
       <c r="B29">
         <v>4157</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>268</v>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,8 +1556,9 @@
       <c r="B30">
         <v>3829</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>268</v>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,8 +1568,9 @@
       <c r="B31">
         <v>3657</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>268</v>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,8 +1580,9 @@
       <c r="B32">
         <v>3546</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>268</v>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,8 +1592,9 @@
       <c r="B33">
         <v>2791</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>268</v>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,8 +1604,9 @@
       <c r="B34">
         <v>2755</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>268</v>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,8 +1616,9 @@
       <c r="B35">
         <v>2195</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>268</v>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,8 +1628,9 @@
       <c r="B36">
         <v>3009</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>268</v>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,8 +1640,9 @@
       <c r="B37">
         <v>2578</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>268</v>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,8 +1652,9 @@
       <c r="B38">
         <v>2645</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>268</v>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,8 +1664,9 @@
       <c r="B39">
         <v>3128</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>268</v>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,8 +1676,9 @@
       <c r="B40">
         <v>3870</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>268</v>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,8 +1688,9 @@
       <c r="B41">
         <v>4217</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>268</v>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,8 +1700,9 @@
       <c r="B42">
         <v>6988</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>268</v>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1663,8 +1712,9 @@
       <c r="B43">
         <v>7348</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>268</v>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,8 +1724,9 @@
       <c r="B44">
         <v>5335</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>268</v>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,8 +1736,9 @@
       <c r="B45">
         <v>4440</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>268</v>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,8 +1748,9 @@
       <c r="B46">
         <v>5051</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>268</v>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,8 +1760,9 @@
       <c r="B47">
         <v>5090</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>268</v>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,8 +1772,9 @@
       <c r="B48">
         <v>7416</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>268</v>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,8 +1784,9 @@
       <c r="B49">
         <v>8620</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>268</v>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,8 +1796,9 @@
       <c r="B50">
         <v>8027</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>268</v>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,8 +1808,9 @@
       <c r="B51">
         <v>6793</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>268</v>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,8 +1820,9 @@
       <c r="B52">
         <v>9349</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>268</v>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,8 +1832,9 @@
       <c r="B53">
         <v>12463</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>268</v>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,8 +1844,9 @@
       <c r="B54">
         <v>11628</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>268</v>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,8 +1856,9 @@
       <c r="B55">
         <v>13530</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>268</v>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,8 +1868,9 @@
       <c r="B56">
         <v>12566</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>268</v>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,8 +1880,9 @@
       <c r="B57">
         <v>10503</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>268</v>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,8 +1892,9 @@
       <c r="B58">
         <v>10862</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>268</v>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,8 +1904,9 @@
       <c r="B59">
         <v>12149</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>268</v>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,8 +1916,9 @@
       <c r="B60">
         <v>15467</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>268</v>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,8 +1928,9 @@
       <c r="B61">
         <v>13162</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>268</v>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,8 +1940,9 @@
       <c r="B62">
         <v>34627</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>268</v>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,8 +1952,9 @@
       <c r="B63">
         <v>60086</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>268</v>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,8 +1964,9 @@
       <c r="B64">
         <v>58956</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>268</v>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,8 +1976,9 @@
       <c r="B65">
         <v>46985</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>268</v>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,8 +1988,9 @@
       <c r="B66">
         <v>31968</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>268</v>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,8 +2000,9 @@
       <c r="B67">
         <v>27129</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>268</v>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C130" si="1">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,8 +2012,9 @@
       <c r="B68">
         <v>19191</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>268</v>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,8 +2024,9 @@
       <c r="B69">
         <v>18354</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>268</v>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,8 +2036,9 @@
       <c r="B70">
         <v>13906</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>268</v>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,8 +2048,9 @@
       <c r="B71">
         <v>13115</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>268</v>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,8 +2060,9 @@
       <c r="B72">
         <v>13549</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>268</v>
+      <c r="C72" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,8 +2072,9 @@
       <c r="B73">
         <v>16309</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>268</v>
+      <c r="C73" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,8 +2084,9 @@
       <c r="B74">
         <v>15158</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>268</v>
+      <c r="C74" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,8 +2096,9 @@
       <c r="B75">
         <v>10824</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>268</v>
+      <c r="C75" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,8 +2108,9 @@
       <c r="B76">
         <v>11009</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>268</v>
+      <c r="C76" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,8 +2120,9 @@
       <c r="B77">
         <v>14416</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>268</v>
+      <c r="C77" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,8 +2132,9 @@
       <c r="B78">
         <v>11335</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>268</v>
+      <c r="C78" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,8 +2144,9 @@
       <c r="B79">
         <v>7324</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>268</v>
+      <c r="C79" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,8 +2156,9 @@
       <c r="B80">
         <v>6121</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>268</v>
+      <c r="C80" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,8 +2168,9 @@
       <c r="B81">
         <v>4372</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>268</v>
+      <c r="C81" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,8 +2180,9 @@
       <c r="B82">
         <v>3541</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>268</v>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,8 +2192,9 @@
       <c r="B83">
         <v>2629</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>268</v>
+      <c r="C83" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,8 +2204,9 @@
       <c r="B84">
         <v>3442</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>268</v>
+      <c r="C84" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,8 +2216,9 @@
       <c r="B85">
         <v>3425</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>268</v>
+      <c r="C85" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,8 +2228,9 @@
       <c r="B86">
         <v>3837</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>268</v>
+      <c r="C86" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,8 +2240,9 @@
       <c r="B87">
         <v>2979</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>268</v>
+      <c r="C87" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,8 +2252,9 @@
       <c r="B88">
         <v>3479</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>268</v>
+      <c r="C88" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,8 +2264,9 @@
       <c r="B89">
         <v>3275</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>268</v>
+      <c r="C89" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,8 +2276,9 @@
       <c r="B90">
         <v>2852</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>268</v>
+      <c r="C90" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,8 +2288,9 @@
       <c r="B91">
         <v>2813</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>268</v>
+      <c r="C91" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,8 +2300,9 @@
       <c r="B92">
         <v>2740</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>268</v>
+      <c r="C92" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,8 +2312,9 @@
       <c r="B93">
         <v>2679</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>268</v>
+      <c r="C93" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,8 +2324,9 @@
       <c r="B94">
         <v>2938</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>268</v>
+      <c r="C94" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,8 +2336,9 @@
       <c r="B95">
         <v>3852</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>268</v>
+      <c r="C95" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,8 +2348,9 @@
       <c r="B96">
         <v>3913</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>268</v>
+      <c r="C96" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,8 +2360,9 @@
       <c r="B97">
         <v>2889</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>268</v>
+      <c r="C97" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,8 +2372,9 @@
       <c r="B98">
         <v>3308</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>268</v>
+      <c r="C98" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,8 +2384,9 @@
       <c r="B99">
         <v>2904</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>268</v>
+      <c r="C99" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,8 +2396,9 @@
       <c r="B100">
         <v>2822</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>268</v>
+      <c r="C100" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,8 +2408,9 @@
       <c r="B101">
         <v>3016</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>268</v>
+      <c r="C101" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,8 +2420,9 @@
       <c r="B102">
         <v>2312</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>268</v>
+      <c r="C102" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,8 +2432,9 @@
       <c r="B103">
         <v>2446</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>268</v>
+      <c r="C103" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,8 +2444,9 @@
       <c r="B104">
         <v>3454</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>268</v>
+      <c r="C104" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,8 +2456,9 @@
       <c r="B105">
         <v>6893</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>268</v>
+      <c r="C105" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,8 +2468,9 @@
       <c r="B106">
         <v>5406</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>268</v>
+      <c r="C106" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,8 +2480,9 @@
       <c r="B107">
         <v>6057</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>268</v>
+      <c r="C107" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,8 +2492,9 @@
       <c r="B108">
         <v>6836</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>268</v>
+      <c r="C108" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,8 +2504,9 @@
       <c r="B109">
         <v>6512</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>268</v>
+      <c r="C109" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,8 +2516,9 @@
       <c r="B110">
         <v>7936</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>268</v>
+      <c r="C110" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,8 +2528,9 @@
       <c r="B111">
         <v>7093</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>268</v>
+      <c r="C111" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,8 +2540,9 @@
       <c r="B112">
         <v>10160</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>268</v>
+      <c r="C112" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,8 +2552,9 @@
       <c r="B113">
         <v>7844</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>268</v>
+      <c r="C113" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,8 +2564,9 @@
       <c r="B114">
         <v>16560</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>268</v>
+      <c r="C114" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,8 +2576,9 @@
       <c r="B115">
         <v>37332</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>268</v>
+      <c r="C115" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,8 +2588,9 @@
       <c r="B116">
         <v>38901</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>268</v>
+      <c r="C116" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,8 +2600,9 @@
       <c r="B117">
         <v>41698</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>268</v>
+      <c r="C117" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,8 +2612,9 @@
       <c r="B118">
         <v>29038</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>268</v>
+      <c r="C118" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2499,8 +2624,9 @@
       <c r="B119">
         <v>18764</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>268</v>
+      <c r="C119" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,8 +2636,9 @@
       <c r="B120">
         <v>16376</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>268</v>
+      <c r="C120" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2521,8 +2648,9 @@
       <c r="B121">
         <v>16564</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>268</v>
+      <c r="C121" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,8 +2660,9 @@
       <c r="B122">
         <v>12280</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>268</v>
+      <c r="C122" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2543,8 +2672,9 @@
       <c r="B123">
         <v>9219</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>268</v>
+      <c r="C123" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,8 +2684,9 @@
       <c r="B124">
         <v>9299</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>268</v>
+      <c r="C124" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,8 +2696,9 @@
       <c r="B125">
         <v>8329</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>268</v>
+      <c r="C125" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2576,8 +2708,9 @@
       <c r="B126">
         <v>7529</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>268</v>
+      <c r="C126" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,8 +2720,9 @@
       <c r="B127">
         <v>7117</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>268</v>
+      <c r="C127" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,8 +2732,9 @@
       <c r="B128">
         <v>6592</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>268</v>
+      <c r="C128" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,8 +2744,9 @@
       <c r="B129">
         <v>7681</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>268</v>
+      <c r="C129" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,8 +2756,9 @@
       <c r="B130">
         <v>8333</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>268</v>
+      <c r="C130" s="1">
+        <f t="shared" si="1"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,8 +2768,9 @@
       <c r="B131">
         <v>4440</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>268</v>
+      <c r="C131" s="1">
+        <f t="shared" ref="C131:C194" si="2">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,8 +2780,9 @@
       <c r="B132">
         <v>3700</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>268</v>
+      <c r="C132" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,8 +2792,9 @@
       <c r="B133">
         <v>3790</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>268</v>
+      <c r="C133" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,8 +2804,9 @@
       <c r="B134">
         <v>3256</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>268</v>
+      <c r="C134" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,8 +2816,9 @@
       <c r="B135">
         <v>2719</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>268</v>
+      <c r="C135" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2686,8 +2828,9 @@
       <c r="B136">
         <v>2500</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>268</v>
+      <c r="C136" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,8 +2840,9 @@
       <c r="B137">
         <v>2758</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>268</v>
+      <c r="C137" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,8 +2852,9 @@
       <c r="B138">
         <v>2315</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>268</v>
+      <c r="C138" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,8 +2864,9 @@
       <c r="B139">
         <v>2116</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>268</v>
+      <c r="C139" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,8 +2876,9 @@
       <c r="B140">
         <v>2397</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>268</v>
+      <c r="C140" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,8 +2888,9 @@
       <c r="B141">
         <v>2333</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>268</v>
+      <c r="C141" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,8 +2900,9 @@
       <c r="B142">
         <v>2443</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>268</v>
+      <c r="C142" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,8 +2912,9 @@
       <c r="B143">
         <v>2931</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>268</v>
+      <c r="C143" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,8 +2924,9 @@
       <c r="B144">
         <v>2765</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>268</v>
+      <c r="C144" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,8 +2936,9 @@
       <c r="B145">
         <v>3913</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>268</v>
+      <c r="C145" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,8 +2948,9 @@
       <c r="B146">
         <v>3747</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>268</v>
+      <c r="C146" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,8 +2960,9 @@
       <c r="B147">
         <v>3131</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>268</v>
+      <c r="C147" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,8 +2972,9 @@
       <c r="B148">
         <v>2773</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>268</v>
+      <c r="C148" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,8 +2984,9 @@
       <c r="B149">
         <v>2700</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>268</v>
+      <c r="C149" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,8 +2996,9 @@
       <c r="B150">
         <v>2661</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>268</v>
+      <c r="C150" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,8 +3008,9 @@
       <c r="B151">
         <v>3188</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>268</v>
+      <c r="C151" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,8 +3020,9 @@
       <c r="B152">
         <v>4484</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>268</v>
+      <c r="C152" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,8 +3032,9 @@
       <c r="B153">
         <v>4159</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>268</v>
+      <c r="C153" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,8 +3044,9 @@
       <c r="B154">
         <v>3247</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>268</v>
+      <c r="C154" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2895,8 +3056,9 @@
       <c r="B155">
         <v>2749</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>268</v>
+      <c r="C155" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,8 +3068,9 @@
       <c r="B156">
         <v>3980</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>268</v>
+      <c r="C156" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,8 +3080,9 @@
       <c r="B157">
         <v>6684</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>268</v>
+      <c r="C157" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,8 +3092,9 @@
       <c r="B158">
         <v>7621</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>268</v>
+      <c r="C158" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,8 +3104,9 @@
       <c r="B159">
         <v>8061</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>268</v>
+      <c r="C159" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,8 +3116,9 @@
       <c r="B160">
         <v>8327</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>268</v>
+      <c r="C160" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,8 +3128,9 @@
       <c r="B161">
         <v>7926</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>268</v>
+      <c r="C161" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,8 +3140,9 @@
       <c r="B162">
         <v>7561</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>268</v>
+      <c r="C162" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2983,8 +3152,9 @@
       <c r="B163">
         <v>8630</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>268</v>
+      <c r="C163" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,8 +3164,9 @@
       <c r="B164">
         <v>10208</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>268</v>
+      <c r="C164" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,8 +3176,9 @@
       <c r="B165">
         <v>8685</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>268</v>
+      <c r="C165" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,8 +3188,9 @@
       <c r="B166">
         <v>14668</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>268</v>
+      <c r="C166" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,8 +3200,9 @@
       <c r="B167">
         <v>38423</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>268</v>
+      <c r="C167" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,8 +3212,9 @@
       <c r="B168">
         <v>38797</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>268</v>
+      <c r="C168" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,8 +3224,9 @@
       <c r="B169">
         <v>31304</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>268</v>
+      <c r="C169" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,8 +3236,9 @@
       <c r="B170">
         <v>25080</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>268</v>
+      <c r="C170" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,8 +3248,9 @@
       <c r="B171">
         <v>27969</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>268</v>
+      <c r="C171" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,8 +3260,9 @@
       <c r="B172">
         <v>14214</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>268</v>
+      <c r="C172" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,8 +3272,9 @@
       <c r="B173">
         <v>16859</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>268</v>
+      <c r="C173" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,8 +3284,9 @@
       <c r="B174">
         <v>13924</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>268</v>
+      <c r="C174" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,8 +3296,9 @@
       <c r="B175">
         <v>13647</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>268</v>
+      <c r="C175" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3126,8 +3308,9 @@
       <c r="B176">
         <v>11032</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>268</v>
+      <c r="C176" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3137,8 +3320,9 @@
       <c r="B177">
         <v>13112</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>268</v>
+      <c r="C177" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,8 +3332,9 @@
       <c r="B178">
         <v>14179</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>268</v>
+      <c r="C178" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,8 +3344,9 @@
       <c r="B179">
         <v>10445</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>268</v>
+      <c r="C179" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3170,8 +3356,9 @@
       <c r="B180">
         <v>11523</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>268</v>
+      <c r="C180" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,8 +3368,9 @@
       <c r="B181">
         <v>10802</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>268</v>
+      <c r="C181" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3192,8 +3380,9 @@
       <c r="B182">
         <v>12585</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>268</v>
+      <c r="C182" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,8 +3392,9 @@
       <c r="B183">
         <v>8483</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>268</v>
+      <c r="C183" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,8 +3404,9 @@
       <c r="B184">
         <v>6506</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>268</v>
+      <c r="C184" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,8 +3416,9 @@
       <c r="B185">
         <v>6234</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>268</v>
+      <c r="C185" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,8 +3428,9 @@
       <c r="B186">
         <v>5394</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>268</v>
+      <c r="C186" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3247,8 +3440,9 @@
       <c r="B187">
         <v>4995</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>268</v>
+      <c r="C187" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,8 +3452,9 @@
       <c r="B188">
         <v>4741</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>268</v>
+      <c r="C188" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,8 +3464,9 @@
       <c r="B189">
         <v>4400</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>268</v>
+      <c r="C189" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,8 +3476,9 @@
       <c r="B190">
         <v>3946</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>268</v>
+      <c r="C190" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,8 +3488,9 @@
       <c r="B191">
         <v>4277</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>268</v>
+      <c r="C191" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,8 +3500,9 @@
       <c r="B192">
         <v>3674</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>268</v>
+      <c r="C192" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,8 +3512,9 @@
       <c r="B193">
         <v>3669</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>268</v>
+      <c r="C193" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,8 +3524,9 @@
       <c r="B194">
         <v>3969</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>268</v>
+      <c r="C194" s="1">
+        <f t="shared" si="2"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3335,8 +3536,9 @@
       <c r="B195">
         <v>4847</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>268</v>
+      <c r="C195" s="1">
+        <f t="shared" ref="C195:C258" si="3">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3346,8 +3548,9 @@
       <c r="B196">
         <v>5099</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>268</v>
+      <c r="C196" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,8 +3560,9 @@
       <c r="B197">
         <v>4509</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>268</v>
+      <c r="C197" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3368,8 +3572,9 @@
       <c r="B198">
         <v>4009</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>268</v>
+      <c r="C198" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,8 +3584,9 @@
       <c r="B199">
         <v>4730</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>268</v>
+      <c r="C199" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,8 +3596,9 @@
       <c r="B200">
         <v>4852</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>268</v>
+      <c r="C200" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3401,8 +3608,9 @@
       <c r="B201">
         <v>6040</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>268</v>
+      <c r="C201" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,8 +3620,9 @@
       <c r="B202">
         <v>6985</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>268</v>
+      <c r="C202" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3423,8 +3632,9 @@
       <c r="B203">
         <v>4609</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>268</v>
+      <c r="C203" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3434,8 +3644,9 @@
       <c r="B204">
         <v>5387</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>268</v>
+      <c r="C204" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3445,8 +3656,9 @@
       <c r="B205">
         <v>5229</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>268</v>
+      <c r="C205" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,8 +3668,9 @@
       <c r="B206">
         <v>5856</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>268</v>
+      <c r="C206" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3467,8 +3680,9 @@
       <c r="B207">
         <v>6177</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>268</v>
+      <c r="C207" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,8 +3692,9 @@
       <c r="B208">
         <v>6889</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>268</v>
+      <c r="C208" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,8 +3704,9 @@
       <c r="B209">
         <v>12557</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>268</v>
+      <c r="C209" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,8 +3716,9 @@
       <c r="B210">
         <v>11668</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>268</v>
+      <c r="C210" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3511,8 +3728,9 @@
       <c r="B211">
         <v>11729</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>268</v>
+      <c r="C211" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,8 +3740,9 @@
       <c r="B212">
         <v>11069</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>268</v>
+      <c r="C212" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,8 +3752,9 @@
       <c r="B213">
         <v>8553</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>268</v>
+      <c r="C213" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,8 +3764,9 @@
       <c r="B214">
         <v>9358</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>268</v>
+      <c r="C214" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,8 +3776,9 @@
       <c r="B215">
         <v>10263</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>268</v>
+      <c r="C215" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,8 +3788,9 @@
       <c r="B216">
         <v>10174</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>268</v>
+      <c r="C216" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,8 +3800,9 @@
       <c r="B217">
         <v>9405</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>268</v>
+      <c r="C217" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,8 +3812,9 @@
       <c r="B218">
         <v>15365</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>268</v>
+      <c r="C218" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,8 +3824,9 @@
       <c r="B219">
         <v>49174</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>268</v>
+      <c r="C219" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,8 +3836,9 @@
       <c r="B220">
         <v>49399</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>268</v>
+      <c r="C220" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,8 +3848,9 @@
       <c r="B221">
         <v>43880</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>268</v>
+      <c r="C221" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,8 +3860,9 @@
       <c r="B222">
         <v>31781</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>268</v>
+      <c r="C222" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,8 +3872,9 @@
       <c r="B223">
         <v>21046</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>268</v>
+      <c r="C223" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,8 +3884,9 @@
       <c r="B224">
         <v>16588</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>268</v>
+      <c r="C224" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,8 +3896,9 @@
       <c r="B225">
         <v>16559</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>268</v>
+      <c r="C225" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,8 +3908,9 @@
       <c r="B226">
         <v>10304</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>268</v>
+      <c r="C226" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,8 +3920,9 @@
       <c r="B227">
         <v>8827</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>268</v>
+      <c r="C227" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,8 +3932,9 @@
       <c r="B228">
         <v>10998</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>268</v>
+      <c r="C228" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,8 +3944,9 @@
       <c r="B229">
         <v>8798</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>268</v>
+      <c r="C229" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,8 +3956,9 @@
       <c r="B230">
         <v>8470</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>268</v>
+      <c r="C230" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,8 +3968,9 @@
       <c r="B231">
         <v>7235</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>268</v>
+      <c r="C231" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,8 +3980,9 @@
       <c r="B232">
         <v>8259</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>268</v>
+      <c r="C232" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,8 +3992,9 @@
       <c r="B233">
         <v>8785</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>268</v>
+      <c r="C233" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,8 +4004,9 @@
       <c r="B234">
         <v>6596</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>268</v>
+      <c r="C234" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,8 +4016,9 @@
       <c r="B235">
         <v>5151</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>268</v>
+      <c r="C235" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,8 +4028,9 @@
       <c r="B236">
         <v>5293</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>268</v>
+      <c r="C236" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,8 +4040,9 @@
       <c r="B237">
         <v>5139</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>268</v>
+      <c r="C237" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,8 +4052,9 @@
       <c r="B238">
         <v>4899</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>268</v>
+      <c r="C238" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,8 +4064,9 @@
       <c r="B239">
         <v>3642</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>268</v>
+      <c r="C239" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,8 +4076,9 @@
       <c r="B240">
         <v>3605</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>268</v>
+      <c r="C240" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,8 +4088,9 @@
       <c r="B241">
         <v>3550</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>268</v>
+      <c r="C241" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,8 +4100,9 @@
       <c r="B242">
         <v>3481</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>268</v>
+      <c r="C242" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,8 +4112,9 @@
       <c r="B243">
         <v>2960</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>268</v>
+      <c r="C243" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,8 +4124,9 @@
       <c r="B244">
         <v>3417</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>268</v>
+      <c r="C244" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,8 +4136,9 @@
       <c r="B245">
         <v>3435</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>268</v>
+      <c r="C245" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,8 +4148,9 @@
       <c r="B246">
         <v>2841</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>268</v>
+      <c r="C246" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,8 +4160,9 @@
       <c r="B247">
         <v>2791</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>268</v>
+      <c r="C247" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,8 +4172,9 @@
       <c r="B248">
         <v>5011</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>268</v>
+      <c r="C248" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,8 +4184,9 @@
       <c r="B249">
         <v>4223</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>268</v>
+      <c r="C249" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,8 +4196,9 @@
       <c r="B250">
         <v>6181</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>268</v>
+      <c r="C250" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3951,8 +4208,9 @@
       <c r="B251">
         <v>4982</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>268</v>
+      <c r="C251" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3962,8 +4220,9 @@
       <c r="B252">
         <v>4062</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>268</v>
+      <c r="C252" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,8 +4232,9 @@
       <c r="B253">
         <v>4825</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>268</v>
+      <c r="C253" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3984,8 +4244,9 @@
       <c r="B254">
         <v>5108</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>268</v>
+      <c r="C254" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3995,8 +4256,9 @@
       <c r="B255">
         <v>4526</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>268</v>
+      <c r="C255" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4006,8 +4268,9 @@
       <c r="B256">
         <v>3470</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>268</v>
+      <c r="C256" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,8 +4280,9 @@
       <c r="B257">
         <v>2244</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>268</v>
+      <c r="C257" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,8 +4292,9 @@
       <c r="B258">
         <v>3119</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>268</v>
+      <c r="C258" s="1">
+        <f t="shared" si="3"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,8 +4304,9 @@
       <c r="B259">
         <v>3610</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>268</v>
+      <c r="C259" s="1">
+        <f t="shared" ref="C259:C266" si="4">74500000*0.17</f>
+        <v>12665000</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4050,8 +4316,9 @@
       <c r="B260">
         <v>3528</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>268</v>
+      <c r="C260" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,8 +4328,9 @@
       <c r="B261">
         <v>8506</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>268</v>
+      <c r="C261" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4072,8 +4340,9 @@
       <c r="B262">
         <v>4916</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>268</v>
+      <c r="C262" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4083,8 +4352,9 @@
       <c r="B263">
         <v>4728</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>268</v>
+      <c r="C263" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,8 +4364,9 @@
       <c r="B264">
         <v>4788</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>268</v>
+      <c r="C264" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4105,8 +4376,9 @@
       <c r="B265">
         <v>3989</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>268</v>
+      <c r="C265" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4116,8 +4388,9 @@
       <c r="B266">
         <v>3277</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>268</v>
+      <c r="C266" s="1">
+        <f t="shared" si="4"/>
+        <v>12665000</v>
       </c>
     </row>
   </sheetData>
